--- a/store/arrests/arrests.xlsx
+++ b/store/arrests/arrests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20240428-crimedash/store/arrests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA8D7D5-8B0A-A04F-8D52-A6B8E8D97269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C1C37-EDA0-1E48-A144-48DB731FADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3400" windowWidth="33000" windowHeight="17440" xr2:uid="{52D3D3FC-696B-F242-8499-4042FC6BF1E4}"/>
+    <workbookView xWindow="1040" yWindow="2600" windowWidth="33000" windowHeight="17440" xr2:uid="{52D3D3FC-696B-F242-8499-4042FC6BF1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
         <v>2023</v>
       </c>
       <c r="B21" s="6">
-        <v>103903</v>
+        <v>114538</v>
       </c>
       <c r="C21" s="1"/>
       <c r="E21" s="2"/>
@@ -720,6 +720,7 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
       <c r="G22" s="2"/>
     </row>
   </sheetData>

--- a/store/arrests/arrests.xlsx
+++ b/store/arrests/arrests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20240428-crimedash/store/arrests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C1C37-EDA0-1E48-A144-48DB731FADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA66EAE-1617-8043-9341-2725EC9EFD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2600" windowWidth="33000" windowHeight="17440" xr2:uid="{52D3D3FC-696B-F242-8499-4042FC6BF1E4}"/>
+    <workbookView xWindow="1040" yWindow="2560" windowWidth="33000" windowHeight="17440" xr2:uid="{52D3D3FC-696B-F242-8499-4042FC6BF1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7AF480-69F8-F149-8534-237D86CE9BE3}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
         <v>2023</v>
       </c>
       <c r="B21" s="6">
-        <v>114538</v>
+        <v>115784</v>
       </c>
       <c r="C21" s="1"/>
       <c r="E21" s="2"/>
@@ -720,10 +720,24 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
+      <c r="A22" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="6">
+        <v>113829</v>
+      </c>
       <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B23" s="6">
+        <v>80986</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>